--- a/data/trans_dic/Hacinamiento_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/Hacinamiento_R-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01675268116825587</v>
+        <v>0.01725651396192825</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.008577385026923979</v>
+        <v>0.008903066350080592</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.009080702216174344</v>
+        <v>0.008678647908510759</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01417713737834956</v>
+        <v>0.0136946978861036</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02602855872141557</v>
+        <v>0.02341425693415555</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02551214948036851</v>
+        <v>0.02578060261853459</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02390243470136246</v>
+        <v>0.02098042605050878</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01110505914773155</v>
+        <v>0.0119198547642858</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.0230432777046811</v>
+        <v>0.02353998453129055</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01804263972261319</v>
+        <v>0.01873545256355816</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01764147667718421</v>
+        <v>0.01820074509842987</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01530519324843015</v>
+        <v>0.01553504586264653</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05160344424745315</v>
+        <v>0.05249698320307319</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03456153476166656</v>
+        <v>0.03608306676553149</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03574133334606269</v>
+        <v>0.03666258812630999</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04249852898524673</v>
+        <v>0.04274590459603454</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0699978600586799</v>
+        <v>0.07521642689753971</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07335900411739522</v>
+        <v>0.0753751737499839</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06929437325851286</v>
+        <v>0.06772197930299884</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03610571514119494</v>
+        <v>0.03870120025896955</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05040592302975967</v>
+        <v>0.05085504726078711</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.04261793456893962</v>
+        <v>0.04388262713611107</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04374118366773877</v>
+        <v>0.04396003573571243</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.03498285840983216</v>
+        <v>0.03381869823766112</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.03577477838996426</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.01959125563741539</v>
+        <v>0.0195912556374154</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.007732855149868754</v>
+        <v>0.007794947977144497</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01294740875441786</v>
+        <v>0.01271660436670855</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01757654441036657</v>
+        <v>0.01810598430128231</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.005368949122663258</v>
+        <v>0.005586322358824336</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.02767605005572558</v>
+        <v>0.02683740055460417</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03825448319242054</v>
+        <v>0.03951788604407219</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02223094746292183</v>
+        <v>0.02219595642893077</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01203003064994167</v>
+        <v>0.01195615060500735</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02069223566539419</v>
+        <v>0.02242673529444892</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.02843021513031513</v>
+        <v>0.02830587042070586</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02387902751776222</v>
+        <v>0.02402908696581674</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.01155413331530845</v>
+        <v>0.01205426841284858</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03854082242247995</v>
+        <v>0.03508577694342824</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04508694107482439</v>
+        <v>0.04555132892715303</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.05466680367436468</v>
+        <v>0.05555636948414571</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03882901629695414</v>
+        <v>0.03991978799313869</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07137789175984181</v>
+        <v>0.07694611292607062</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09397469710106449</v>
+        <v>0.09311868952407699</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.0634780317200664</v>
+        <v>0.06163137578798748</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03742415380782958</v>
+        <v>0.03729505788172578</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04821063092127</v>
+        <v>0.04707230539962106</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.05922636053801299</v>
+        <v>0.05799529810782717</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05237953114158967</v>
+        <v>0.05171038004120936</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.0318595810189807</v>
+        <v>0.03073738510519437</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03256788584641282</v>
+        <v>0.03425434784803508</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03704812421559333</v>
+        <v>0.03573619032324945</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.03141508186345879</v>
+        <v>0.030505123074877</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.01171987809410797</v>
+        <v>0.01190629307949904</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03292360701535101</v>
+        <v>0.02723192737353412</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.0316293764580027</v>
+        <v>0.03244210698087249</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.006498761400419998</v>
+        <v>0.006370529003901586</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.009026651697803959</v>
+        <v>0.009004961385758141</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.0375844335490241</v>
+        <v>0.03659903991615079</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.04086569182688801</v>
+        <v>0.04155797551669881</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.02727782110074146</v>
+        <v>0.0262769868511925</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.01375371957797695</v>
+        <v>0.01319776379352728</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06886146496546224</v>
+        <v>0.07217137279870156</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07342580924693218</v>
+        <v>0.07082026708058003</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07176713597490629</v>
+        <v>0.07225656384705643</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.04026161976774566</v>
+        <v>0.03948826146248777</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1195004329319081</v>
+        <v>0.1140966371842495</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.09033343077491227</v>
+        <v>0.08851374513229623</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05907851130343202</v>
+        <v>0.0598358073403974</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.06070448262258132</v>
+        <v>0.06358257923533892</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07147057639842</v>
+        <v>0.07000061181454072</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.06985802862850266</v>
+        <v>0.06995607731696231</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.06070992691839046</v>
+        <v>0.0596663647108697</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.04000954931903898</v>
+        <v>0.03797531106963626</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0328939042767788</v>
+        <v>0.03239717830782391</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04546139494597468</v>
+        <v>0.04600125180834713</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.02971732261153896</v>
+        <v>0.02858512399962651</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0204419785296364</v>
+        <v>0.02073728209104692</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0395235004823142</v>
+        <v>0.04001885876815839</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06014319678723728</v>
+        <v>0.05973136647373973</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03731505325038592</v>
+        <v>0.03808561530218237</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01650005949071116</v>
+        <v>0.01672126053623451</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03862254696629649</v>
+        <v>0.03843078869206019</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.05503706885850857</v>
+        <v>0.05500621208605568</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03678946067690511</v>
+        <v>0.03604363069273144</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.02144249539301054</v>
+        <v>0.02114295085596481</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05812748330818967</v>
+        <v>0.05744639251085538</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07449271081930763</v>
+        <v>0.07605937922289453</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05360995628865394</v>
+        <v>0.05346519635181586</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04317210147083105</v>
+        <v>0.04356018821770485</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07650849918204246</v>
+        <v>0.07699838774190916</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.09971982732877009</v>
+        <v>0.1016254675771624</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06822764848634548</v>
+        <v>0.0690389400001304</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03716881144245544</v>
+        <v>0.03572147135798658</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05935019834497884</v>
+        <v>0.05932906234393012</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.07964114345130839</v>
+        <v>0.07967183008069098</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.05537901755264538</v>
+        <v>0.05504827556975354</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.03662769971045311</v>
+        <v>0.03690188029575746</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.06645622171842909</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.04048415683720547</v>
+        <v>0.04048415683720549</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.09411649174513477</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.06908133234884158</v>
+        <v>0.06948463742979744</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04819217603632511</v>
+        <v>0.0478823020604571</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03959488140464353</v>
+        <v>0.03718371576164311</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.01918326669382912</v>
+        <v>0.019491503453394</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06821527716524146</v>
+        <v>0.06654183994099785</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.05625506600418914</v>
+        <v>0.05579634972273862</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.04884571126208193</v>
+        <v>0.04966720271805955</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.02934211532221689</v>
+        <v>0.02974714234780656</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.0752934691436391</v>
+        <v>0.07329366883472278</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.05663350352600796</v>
+        <v>0.05589582731568275</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.04966304629720485</v>
+        <v>0.04980187819415884</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.02903311995018065</v>
+        <v>0.02841006018082599</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1404724661444896</v>
+        <v>0.1440505835967578</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.09114640082900849</v>
+        <v>0.09408201672322698</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08084532283724409</v>
+        <v>0.07850129161852143</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05167106827379856</v>
+        <v>0.05149353008947574</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1220359495806863</v>
+        <v>0.118829671503365</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09538842176884908</v>
+        <v>0.09446182636890033</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.08609170232058432</v>
+        <v>0.08789302522046812</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.05301167876291767</v>
+        <v>0.05350593375078971</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1162263932085546</v>
+        <v>0.1153747971749251</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.08664100771671172</v>
+        <v>0.08607015741957198</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.07731780827272011</v>
+        <v>0.07584184494154057</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.04844700833730241</v>
+        <v>0.04739332451514695</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.0336099882725693</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.04103678496440538</v>
+        <v>0.04103678496440537</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.05803393978653255</v>
@@ -1377,7 +1377,7 @@
         <v>0.04126517523726168</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.03487596429948595</v>
+        <v>0.03487596429948596</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.04159684065319497</v>
+        <v>0.04135386719702888</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.01530338730523846</v>
+        <v>0.01539669255624958</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.04621510047365077</v>
+        <v>0.04252947318403013</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.04370450348026414</v>
+        <v>0.04402364824341725</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.03796881078336554</v>
+        <v>0.03940181622705949</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.02471730667035094</v>
+        <v>0.02387496421284817</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.02686218292792788</v>
+        <v>0.02763154302370124</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.04693223592598048</v>
+        <v>0.04731583745749252</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.03649422414043369</v>
+        <v>0.0375056846162046</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.0311665654638756</v>
+        <v>0.0316522439959446</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.02408241218361529</v>
+        <v>0.02447256690590329</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1008457521203423</v>
+        <v>0.09995205944780339</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.06004755695196558</v>
+        <v>0.06427490808161253</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.1128365127406174</v>
+        <v>0.1104566047403421</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04512493657149817</v>
+        <v>0.04248534802634186</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.06896171480087755</v>
+        <v>0.06850875450559328</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.06584260689763886</v>
+        <v>0.06573370640704684</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.04649837058037329</v>
+        <v>0.04638201795489665</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.06146490459970425</v>
+        <v>0.06176921354733403</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.069808614483428</v>
+        <v>0.07058885138501085</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.05897568791007209</v>
+        <v>0.06073378992006619</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.05367645089097203</v>
+        <v>0.05470267088756203</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.05312027702287111</v>
+        <v>0.0515669811634285</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.04563123481223633</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.03163275446491444</v>
+        <v>0.03163275446491443</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.0540605708575268</v>
@@ -1513,7 +1513,7 @@
         <v>0.04439739058206919</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.0287412153776345</v>
+        <v>0.02874121537763449</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.04092964397354764</v>
+        <v>0.04078461388337307</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04072911809706331</v>
+        <v>0.04074823877100965</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03637181294192374</v>
+        <v>0.03636299484004879</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.0200145063351161</v>
+        <v>0.02065336008906369</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.05191699261397487</v>
+        <v>0.05168112758303337</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.05405168888146256</v>
+        <v>0.05371905691245203</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03897761217609813</v>
+        <v>0.03932582413264802</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.02628857324566522</v>
+        <v>0.02647765607129737</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.04853959622459745</v>
+        <v>0.04817114448247847</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.04946801709755514</v>
+        <v>0.04959650217177625</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.04008113893978257</v>
+        <v>0.03969693872303172</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.02503456382910501</v>
+        <v>0.02506275635320744</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.05607940032303989</v>
+        <v>0.05591566540223005</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05579106559188247</v>
+        <v>0.05519644867429143</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.05084437654482227</v>
+        <v>0.050927928681903</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03169161166216383</v>
+        <v>0.03292625433685781</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.06879358566486814</v>
+        <v>0.06876368817301255</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.0703520419965782</v>
+        <v>0.07045104433263019</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.05282626765347261</v>
+        <v>0.05349642204333335</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.03778916251709306</v>
+        <v>0.03756644375674854</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.05986635825617998</v>
+        <v>0.06024345410517609</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.06064515677957031</v>
+        <v>0.0614750901078157</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.05048427611515086</v>
+        <v>0.0499927584325521</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.0329976359001331</v>
+        <v>0.0337187969019274</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>7937</v>
+        <v>8176</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3750</v>
+        <v>3893</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3888</v>
+        <v>3716</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>7712</v>
+        <v>7450</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>7956</v>
+        <v>7157</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>8022</v>
+        <v>8107</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>8251</v>
+        <v>7243</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5396</v>
+        <v>5792</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>17961</v>
+        <v>18348</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>13562</v>
+        <v>14083</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>13643</v>
+        <v>14075</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>15763</v>
+        <v>15999</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>24448</v>
+        <v>24872</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>15111</v>
+        <v>15776</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>15302</v>
+        <v>15696</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>23119</v>
+        <v>23253</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>21396</v>
+        <v>22991</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>23068</v>
+        <v>23702</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>23921</v>
+        <v>23379</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>17544</v>
+        <v>18805</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>39288</v>
+        <v>39638</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>32034</v>
+        <v>32985</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>33827</v>
+        <v>33996</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>36028</v>
+        <v>34829</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2831</v>
+        <v>2854</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5392</v>
+        <v>5296</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6559</v>
+        <v>6756</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2573</v>
+        <v>2677</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>10266</v>
+        <v>9955</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>12847</v>
+        <v>13271</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>8233</v>
+        <v>8220</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5016</v>
+        <v>4985</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>15251</v>
+        <v>16529</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>21387</v>
+        <v>21293</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>17754</v>
+        <v>17865</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>10353</v>
+        <v>10802</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>14110</v>
+        <v>12845</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>18775</v>
+        <v>18969</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>20399</v>
+        <v>20730</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>18605</v>
+        <v>19128</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>26476</v>
+        <v>28541</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>31559</v>
+        <v>31271</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>23509</v>
+        <v>22825</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>15603</v>
+        <v>15549</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>35532</v>
+        <v>34693</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>44553</v>
+        <v>43627</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>38944</v>
+        <v>38446</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>28549</v>
+        <v>27543</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>17594</v>
+        <v>18505</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>23206</v>
+        <v>22384</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>16226</v>
+        <v>15756</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5471</v>
+        <v>5559</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5524</v>
+        <v>4569</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>8228</v>
+        <v>8439</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1080</v>
+        <v>1058</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>26610</v>
+        <v>25912</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>36228</v>
+        <v>36841</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>18621</v>
+        <v>17937</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>8947</v>
+        <v>8585</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>37200</v>
+        <v>38989</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>45992</v>
+        <v>44360</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>37068</v>
+        <v>37321</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>18796</v>
+        <v>18435</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>20050</v>
+        <v>19143</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>23498</v>
+        <v>23025</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>9814</v>
+        <v>9940</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>11147</v>
+        <v>11676</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>50601</v>
+        <v>49561</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>61929</v>
+        <v>62016</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>41442</v>
+        <v>40730</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>26026</v>
+        <v>24702</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>40665</v>
+        <v>40051</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>52466</v>
+        <v>53089</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>33986</v>
+        <v>32691</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>23114</v>
+        <v>23447</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>28231</v>
+        <v>28585</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>45852</v>
+        <v>45538</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>30627</v>
+        <v>31260</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>14079</v>
+        <v>14268</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>75335</v>
+        <v>74961</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>105477</v>
+        <v>105417</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>72270</v>
+        <v>70805</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>42541</v>
+        <v>41947</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>71860</v>
+        <v>71018</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>85971</v>
+        <v>87779</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>61311</v>
+        <v>61145</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>48814</v>
+        <v>49253</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>54649</v>
+        <v>54999</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>76025</v>
+        <v>77478</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>56000</v>
+        <v>56666</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>31715</v>
+        <v>30480</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>115765</v>
+        <v>115724</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>152629</v>
+        <v>152688</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>108788</v>
+        <v>108138</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>72668</v>
+        <v>73212</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>23980</v>
+        <v>24120</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>24558</v>
+        <v>24401</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>24506</v>
+        <v>23014</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>10853</v>
+        <v>11028</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>38603</v>
+        <v>37656</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>42616</v>
+        <v>42268</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>35842</v>
+        <v>36444</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>24162</v>
+        <v>24495</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>68745</v>
+        <v>66919</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>71762</v>
+        <v>70828</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>67179</v>
+        <v>67367</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>40333</v>
+        <v>39467</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>48761</v>
+        <v>50003</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>46448</v>
+        <v>47944</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>50037</v>
+        <v>48586</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>29234</v>
+        <v>29133</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>69061</v>
+        <v>67246</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>72261</v>
+        <v>71559</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>63172</v>
+        <v>64494</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>43652</v>
+        <v>44059</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>106118</v>
+        <v>105340</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>109786</v>
+        <v>109063</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>104588</v>
+        <v>102591</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>67303</v>
+        <v>65839</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>12325</v>
+        <v>12253</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>4064</v>
+        <v>4089</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>13219</v>
+        <v>12165</v>
       </c>
       <c r="F26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>54397</v>
+        <v>54794</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>41962</v>
+        <v>43545</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>26621</v>
+        <v>25714</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>22481</v>
+        <v>23125</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>72320</v>
+        <v>72911</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>50024</v>
+        <v>51410</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>42482</v>
+        <v>43144</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>25684</v>
+        <v>26101</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>29880</v>
+        <v>29615</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>15947</v>
+        <v>17069</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>32275</v>
+        <v>31594</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>10362</v>
+        <v>9756</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>85833</v>
+        <v>85269</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>72767</v>
+        <v>72646</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>50080</v>
+        <v>49955</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>51439</v>
+        <v>51694</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>107571</v>
+        <v>108774</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>80840</v>
+        <v>83250</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>73164</v>
+        <v>74563</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>56654</v>
+        <v>54997</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>133421</v>
+        <v>132948</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>138856</v>
+        <v>138921</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>122441</v>
+        <v>122412</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>68371</v>
+        <v>70554</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>174919</v>
+        <v>174125</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>191100</v>
+        <v>189924</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>136939</v>
+        <v>138162</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>94640</v>
+        <v>95321</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>321768</v>
+        <v>319325</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>343543</v>
+        <v>344435</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>275744</v>
+        <v>273101</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>175646</v>
+        <v>175844</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>182806</v>
+        <v>182272</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>190206</v>
+        <v>188179</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>171161</v>
+        <v>171443</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>108261</v>
+        <v>112479</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>231780</v>
+        <v>231679</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>248729</v>
+        <v>249079</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>185593</v>
+        <v>187947</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>136043</v>
+        <v>135241</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>396853</v>
+        <v>399353</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>421165</v>
+        <v>426929</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>347314</v>
+        <v>343932</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>231516</v>
+        <v>236576</v>
       </c>
     </row>
     <row r="32">
